--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.42330744072579</v>
+        <v>79.94220366666666</v>
       </c>
       <c r="H2">
-        <v>67.42330744072579</v>
+        <v>239.826611</v>
       </c>
       <c r="I2">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="J2">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>108.2260963716218</v>
+        <v>139.822991265387</v>
       </c>
       <c r="R2">
-        <v>108.2260963716218</v>
+        <v>1258.406921388483</v>
       </c>
       <c r="S2">
-        <v>4.304322179775745E-05</v>
+        <v>5.181818152816355E-05</v>
       </c>
       <c r="T2">
-        <v>4.304322179775745E-05</v>
+        <v>5.181818152816355E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.42330744072579</v>
+        <v>79.94220366666666</v>
       </c>
       <c r="H3">
-        <v>67.42330744072579</v>
+        <v>239.826611</v>
       </c>
       <c r="I3">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="J3">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>9603.472344544482</v>
+        <v>11434.57733614769</v>
       </c>
       <c r="R3">
-        <v>9603.472344544482</v>
+        <v>102911.1960253293</v>
       </c>
       <c r="S3">
-        <v>0.00381945209162369</v>
+        <v>0.004237636448341407</v>
       </c>
       <c r="T3">
-        <v>0.00381945209162369</v>
+        <v>0.004237636448341406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.42330744072579</v>
+        <v>79.94220366666666</v>
       </c>
       <c r="H4">
-        <v>67.42330744072579</v>
+        <v>239.826611</v>
       </c>
       <c r="I4">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="J4">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>8199.656834089956</v>
+        <v>10616.70932881738</v>
       </c>
       <c r="R4">
-        <v>8199.656834089956</v>
+        <v>95550.38395935639</v>
       </c>
       <c r="S4">
-        <v>0.003261132569757702</v>
+        <v>0.00393453584602715</v>
       </c>
       <c r="T4">
-        <v>0.003261132569757702</v>
+        <v>0.00393453584602715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.42330744072579</v>
+        <v>79.94220366666666</v>
       </c>
       <c r="H5">
-        <v>67.42330744072579</v>
+        <v>239.826611</v>
       </c>
       <c r="I5">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="J5">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>8422.120946606832</v>
+        <v>10049.30930569114</v>
       </c>
       <c r="R5">
-        <v>8422.120946606832</v>
+        <v>90443.78375122027</v>
       </c>
       <c r="S5">
-        <v>0.003349610048463254</v>
+        <v>0.003724258286297116</v>
       </c>
       <c r="T5">
-        <v>0.003349610048463254</v>
+        <v>0.003724258286297115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.42330744072579</v>
+        <v>79.94220366666666</v>
       </c>
       <c r="H6">
-        <v>67.42330744072579</v>
+        <v>239.826611</v>
       </c>
       <c r="I6">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="J6">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>3550.989509020285</v>
+        <v>4283.821431176765</v>
       </c>
       <c r="R6">
-        <v>3550.989509020285</v>
+        <v>38554.39288059089</v>
       </c>
       <c r="S6">
-        <v>0.0014122844134878</v>
+        <v>0.001587577511724324</v>
       </c>
       <c r="T6">
-        <v>0.0014122844134878</v>
+        <v>0.001587577511724324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.42330744072579</v>
+        <v>79.94220366666666</v>
       </c>
       <c r="H7">
-        <v>67.42330744072579</v>
+        <v>239.826611</v>
       </c>
       <c r="I7">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="J7">
-        <v>0.01246700321067976</v>
+        <v>0.01421731517517826</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>1462.051434925329</v>
+        <v>1838.887700768887</v>
       </c>
       <c r="R7">
-        <v>1462.051434925329</v>
+        <v>16549.98930691998</v>
       </c>
       <c r="S7">
-        <v>0.0005814808655495577</v>
+        <v>0.0006814889012601023</v>
       </c>
       <c r="T7">
-        <v>0.0005814808655495577</v>
+        <v>0.0006814889012601024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.0820553607295</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H8">
-        <v>79.0820553607295</v>
+        <v>237.850944</v>
       </c>
       <c r="I8">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="J8">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>126.9404078442834</v>
+        <v>138.6711438180481</v>
       </c>
       <c r="R8">
-        <v>126.9404078442834</v>
+        <v>1248.040294362432</v>
       </c>
       <c r="S8">
-        <v>5.048619799773162E-05</v>
+        <v>5.139130866856584E-05</v>
       </c>
       <c r="T8">
-        <v>5.048619799773162E-05</v>
+        <v>5.139130866856584E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.0820553607295</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H9">
-        <v>79.0820553607295</v>
+        <v>237.850944</v>
       </c>
       <c r="I9">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="J9">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>11264.09190581716</v>
+        <v>11340.38046196523</v>
       </c>
       <c r="R9">
-        <v>11264.09190581716</v>
+        <v>102063.4241576871</v>
       </c>
       <c r="S9">
-        <v>0.004479906626102282</v>
+        <v>0.004202727234330185</v>
       </c>
       <c r="T9">
-        <v>0.004479906626102282</v>
+        <v>0.004202727234330184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.0820553607295</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H10">
-        <v>79.0820553607295</v>
+        <v>237.850944</v>
       </c>
       <c r="I10">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="J10">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>9617.530499561408</v>
+        <v>10529.24996731418</v>
       </c>
       <c r="R10">
-        <v>9617.530499561408</v>
+        <v>94763.24970582761</v>
       </c>
       <c r="S10">
-        <v>0.003825043241122264</v>
+        <v>0.003902123543660451</v>
       </c>
       <c r="T10">
-        <v>0.003825043241122264</v>
+        <v>0.003902123543660451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.0820553607295</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H11">
-        <v>79.0820553607295</v>
+        <v>237.850944</v>
       </c>
       <c r="I11">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="J11">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>9878.462808129949</v>
+        <v>9966.524127327233</v>
       </c>
       <c r="R11">
-        <v>9878.462808129949</v>
+        <v>89698.71714594511</v>
       </c>
       <c r="S11">
-        <v>0.00392882012681304</v>
+        <v>0.003693578228879661</v>
       </c>
       <c r="T11">
-        <v>0.00392882012681304</v>
+        <v>0.00369357822887966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>79.0820553607295</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H12">
-        <v>79.0820553607295</v>
+        <v>237.850944</v>
       </c>
       <c r="I12">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="J12">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>4165.021853675604</v>
+        <v>4248.531750018454</v>
       </c>
       <c r="R12">
-        <v>4165.021853675604</v>
+        <v>38236.78575016608</v>
       </c>
       <c r="S12">
-        <v>0.001656494740646252</v>
+        <v>0.001574499211168863</v>
       </c>
       <c r="T12">
-        <v>0.001656494740646252</v>
+        <v>0.001574499211168863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>79.0820553607295</v>
+        <v>79.28364800000001</v>
       </c>
       <c r="H13">
-        <v>79.0820553607295</v>
+        <v>237.850944</v>
       </c>
       <c r="I13">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="J13">
-        <v>0.01462278068983968</v>
+        <v>0.01410019439236322</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>1714.867408702047</v>
+        <v>1823.739132676438</v>
       </c>
       <c r="R13">
-        <v>1714.867408702047</v>
+        <v>16413.65219408794</v>
       </c>
       <c r="S13">
-        <v>0.0006820297571581132</v>
+        <v>0.0006758748656554972</v>
       </c>
       <c r="T13">
-        <v>0.0006820297571581132</v>
+        <v>0.0006758748656554972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1984.62595160223</v>
+        <v>2157.091837666667</v>
       </c>
       <c r="H14">
-        <v>1984.62595160223</v>
+        <v>6471.275513000001</v>
       </c>
       <c r="I14">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017397</v>
       </c>
       <c r="J14">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017396</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>3185.668690141796</v>
+        <v>3772.863635762722</v>
       </c>
       <c r="R14">
-        <v>3185.668690141796</v>
+        <v>33955.77272186449</v>
       </c>
       <c r="S14">
-        <v>0.001266990574372224</v>
+        <v>0.001398217353166842</v>
       </c>
       <c r="T14">
-        <v>0.001266990574372224</v>
+        <v>0.001398217353166842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1984.62595160223</v>
+        <v>2157.091837666667</v>
       </c>
       <c r="H15">
-        <v>1984.62595160223</v>
+        <v>6471.275513000001</v>
       </c>
       <c r="I15">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017397</v>
       </c>
       <c r="J15">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017396</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>282681.184948291</v>
+        <v>308540.8245914686</v>
       </c>
       <c r="R15">
-        <v>282681.184948291</v>
+        <v>2776867.421323217</v>
       </c>
       <c r="S15">
-        <v>0.1124267561125179</v>
+        <v>0.114344746259822</v>
       </c>
       <c r="T15">
-        <v>0.1124267561125179</v>
+        <v>0.114344746259822</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1984.62595160223</v>
+        <v>2157.091837666667</v>
       </c>
       <c r="H16">
-        <v>1984.62595160223</v>
+        <v>6471.275513000001</v>
       </c>
       <c r="I16">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017397</v>
       </c>
       <c r="J16">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017396</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>241359.4403014699</v>
+        <v>286472.1759680562</v>
       </c>
       <c r="R16">
-        <v>241359.4403014699</v>
+        <v>2578249.583712506</v>
       </c>
       <c r="S16">
-        <v>0.09599244794163031</v>
+        <v>0.1061661396508507</v>
       </c>
       <c r="T16">
-        <v>0.09599244794163031</v>
+        <v>0.1061661396508507</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1984.62595160223</v>
+        <v>2157.091837666667</v>
       </c>
       <c r="H17">
-        <v>1984.62595160223</v>
+        <v>6471.275513000001</v>
       </c>
       <c r="I17">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017397</v>
       </c>
       <c r="J17">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017396</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>247907.7404036163</v>
+        <v>271161.9405424618</v>
       </c>
       <c r="R17">
-        <v>247907.7404036163</v>
+        <v>2440457.464882156</v>
       </c>
       <c r="S17">
-        <v>0.09859680994991273</v>
+        <v>0.1004921903858362</v>
       </c>
       <c r="T17">
-        <v>0.09859680994991273</v>
+        <v>0.1004921903858362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1984.62595160223</v>
+        <v>2157.091837666667</v>
       </c>
       <c r="H18">
-        <v>1984.62595160223</v>
+        <v>6471.275513000001</v>
       </c>
       <c r="I18">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017397</v>
       </c>
       <c r="J18">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017396</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>104524.4767866739</v>
+        <v>115590.9622124411</v>
       </c>
       <c r="R18">
-        <v>104524.4767866739</v>
+        <v>1040318.65991197</v>
       </c>
       <c r="S18">
-        <v>0.04157102943244534</v>
+        <v>0.0428378295209746</v>
       </c>
       <c r="T18">
-        <v>0.04157102943244534</v>
+        <v>0.0428378295209746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1984.62595160223</v>
+        <v>2157.091837666667</v>
       </c>
       <c r="H19">
-        <v>1984.62595160223</v>
+        <v>6471.275513000001</v>
       </c>
       <c r="I19">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017397</v>
       </c>
       <c r="J19">
-        <v>0.3669701035116861</v>
+        <v>0.3836278350017396</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>43035.93713317917</v>
+        <v>49618.96805164199</v>
       </c>
       <c r="R19">
-        <v>43035.93713317917</v>
+        <v>446570.7124647779</v>
       </c>
       <c r="S19">
-        <v>0.01711606950080758</v>
+        <v>0.0183887118310894</v>
       </c>
       <c r="T19">
-        <v>0.01711606950080758</v>
+        <v>0.0183887118310894</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1969.2863059285</v>
+        <v>1972.125732666667</v>
       </c>
       <c r="H20">
-        <v>1969.2863059285</v>
+        <v>5916.377198</v>
       </c>
       <c r="I20">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="J20">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>3161.045899685378</v>
+        <v>3449.348484846367</v>
       </c>
       <c r="R20">
-        <v>3161.045899685378</v>
+        <v>31044.1363636173</v>
       </c>
       <c r="S20">
-        <v>0.001257197703092306</v>
+        <v>0.001278323145028521</v>
       </c>
       <c r="T20">
-        <v>0.001257197703092306</v>
+        <v>0.001278323145028521</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1969.2863059285</v>
+        <v>1972.125732666667</v>
       </c>
       <c r="H21">
-        <v>1969.2863059285</v>
+        <v>5916.377198</v>
       </c>
       <c r="I21">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="J21">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>280496.274883885</v>
+        <v>282084.0954148821</v>
       </c>
       <c r="R21">
-        <v>280496.274883885</v>
+        <v>2538756.858733939</v>
       </c>
       <c r="S21">
-        <v>0.1115577829936183</v>
+        <v>0.1045399238718376</v>
       </c>
       <c r="T21">
-        <v>0.1115577829936183</v>
+        <v>0.1045399238718376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1969.2863059285</v>
+        <v>1972.125732666667</v>
       </c>
       <c r="H22">
-        <v>1969.2863059285</v>
+        <v>5916.377198</v>
       </c>
       <c r="I22">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="J22">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>239493.9158225396</v>
+        <v>261907.7871671589</v>
       </c>
       <c r="R22">
-        <v>239493.9158225396</v>
+        <v>2357170.084504431</v>
       </c>
       <c r="S22">
-        <v>0.09525049949658966</v>
+        <v>0.09706261564171738</v>
       </c>
       <c r="T22">
-        <v>0.09525049949658966</v>
+        <v>0.09706261564171739</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1969.2863059285</v>
+        <v>1972.125732666667</v>
       </c>
       <c r="H23">
-        <v>1969.2863059285</v>
+        <v>5916.377198</v>
       </c>
       <c r="I23">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="J23">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>245991.6025568364</v>
+        <v>247910.3723474635</v>
       </c>
       <c r="R23">
-        <v>245991.6025568364</v>
+        <v>2231193.351127171</v>
       </c>
       <c r="S23">
-        <v>0.09783473177192117</v>
+        <v>0.09187519563669609</v>
       </c>
       <c r="T23">
-        <v>0.09783473177192117</v>
+        <v>0.09187519563669609</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1969.2863059285</v>
+        <v>1972.125732666667</v>
       </c>
       <c r="H24">
-        <v>1969.2863059285</v>
+        <v>5916.377198</v>
       </c>
       <c r="I24">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="J24">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>103716.5822628493</v>
+        <v>105679.2794179039</v>
       </c>
       <c r="R24">
-        <v>103716.5822628493</v>
+        <v>951113.5147611351</v>
       </c>
       <c r="S24">
-        <v>0.04124971706561314</v>
+        <v>0.03916457540411715</v>
       </c>
       <c r="T24">
-        <v>0.04124971706561314</v>
+        <v>0.03916457540411715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1969.2863059285</v>
+        <v>1972.125732666667</v>
       </c>
       <c r="H25">
-        <v>1969.2863059285</v>
+        <v>5916.377198</v>
       </c>
       <c r="I25">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="J25">
-        <v>0.3641337043624274</v>
+        <v>0.350732552023612</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>42703.30214655767</v>
+        <v>45364.24551532228</v>
       </c>
       <c r="R25">
-        <v>42703.30214655767</v>
+        <v>408278.2096379005</v>
       </c>
       <c r="S25">
-        <v>0.01698377533159279</v>
+        <v>0.01681191832421525</v>
       </c>
       <c r="T25">
-        <v>0.01698377533159279</v>
+        <v>0.01681191832421526</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1250.64932337816</v>
+        <v>1271.140543666667</v>
       </c>
       <c r="H26">
-        <v>1250.64932337816</v>
+        <v>3813.421631</v>
       </c>
       <c r="I26">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="J26">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>2007.508965916895</v>
+        <v>2223.289639040727</v>
       </c>
       <c r="R26">
-        <v>2007.508965916895</v>
+        <v>20009.60675136655</v>
       </c>
       <c r="S26">
-        <v>0.0007984179100781583</v>
+        <v>0.0008239476574123108</v>
       </c>
       <c r="T26">
-        <v>0.0007984179100781583</v>
+        <v>0.0008239476574123109</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1250.64932337816</v>
+        <v>1271.140543666667</v>
       </c>
       <c r="H27">
-        <v>1250.64932337816</v>
+        <v>3813.421631</v>
       </c>
       <c r="I27">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="J27">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>178136.8586870994</v>
+        <v>181818.2910277958</v>
       </c>
       <c r="R27">
-        <v>178136.8586870994</v>
+        <v>1636364.619250163</v>
       </c>
       <c r="S27">
-        <v>0.07084783223166434</v>
+        <v>0.06738157383385256</v>
       </c>
       <c r="T27">
-        <v>0.07084783223166434</v>
+        <v>0.06738157383385256</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1250.64932337816</v>
+        <v>1271.140543666667</v>
       </c>
       <c r="H28">
-        <v>1250.64932337816</v>
+        <v>3813.421631</v>
       </c>
       <c r="I28">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="J28">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>152097.1850943852</v>
+        <v>168813.5809272295</v>
       </c>
       <c r="R28">
-        <v>152097.1850943852</v>
+        <v>1519322.228345065</v>
       </c>
       <c r="S28">
-        <v>0.06049144422942368</v>
+        <v>0.06256204864265383</v>
       </c>
       <c r="T28">
-        <v>0.06049144422942368</v>
+        <v>0.06256204864265384</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1250.64932337816</v>
+        <v>1271.140543666667</v>
       </c>
       <c r="H29">
-        <v>1250.64932337816</v>
+        <v>3813.421631</v>
       </c>
       <c r="I29">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="J29">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>156223.7194095365</v>
+        <v>159791.4982125657</v>
       </c>
       <c r="R29">
-        <v>156223.7194095365</v>
+        <v>1438123.483913091</v>
       </c>
       <c r="S29">
-        <v>0.06213263187027894</v>
+        <v>0.05921847892182579</v>
       </c>
       <c r="T29">
-        <v>0.06213263187027894</v>
+        <v>0.05921847892182579</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1250.64932337816</v>
+        <v>1271.140543666667</v>
       </c>
       <c r="H30">
-        <v>1250.64932337816</v>
+        <v>3813.421631</v>
       </c>
       <c r="I30">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="J30">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>65868.0624750342</v>
+        <v>68115.94943895053</v>
       </c>
       <c r="R30">
-        <v>65868.0624750342</v>
+        <v>613043.5449505548</v>
       </c>
       <c r="S30">
-        <v>0.02619676508303647</v>
+        <v>0.02524366415743037</v>
       </c>
       <c r="T30">
-        <v>0.02619676508303647</v>
+        <v>0.02524366415743037</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1250.64932337816</v>
+        <v>1271.140543666667</v>
       </c>
       <c r="H31">
-        <v>1250.64932337816</v>
+        <v>3813.421631</v>
       </c>
       <c r="I31">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="J31">
-        <v>0.2312531040352379</v>
+        <v>0.2260658940127764</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>27119.90418804271</v>
+        <v>29239.68322719587</v>
       </c>
       <c r="R31">
-        <v>27119.90418804271</v>
+        <v>263157.1490447629</v>
       </c>
       <c r="S31">
-        <v>0.01078601271075634</v>
+        <v>0.0108361807996015</v>
       </c>
       <c r="T31">
-        <v>0.01078601271075634</v>
+        <v>0.0108361807996015</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>57.073753884737</v>
+        <v>63.29227233333334</v>
       </c>
       <c r="H32">
-        <v>57.073753884737</v>
+        <v>189.876817</v>
       </c>
       <c r="I32">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="J32">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>91.61326880396773</v>
+        <v>110.701412216889</v>
       </c>
       <c r="R32">
-        <v>91.61326880396773</v>
+        <v>996.3127099520012</v>
       </c>
       <c r="S32">
-        <v>3.643603882012275E-05</v>
+        <v>4.102576995217554E-05</v>
       </c>
       <c r="T32">
-        <v>3.643603882012275E-05</v>
+        <v>4.102576995217554E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>57.073753884737</v>
+        <v>63.29227233333334</v>
       </c>
       <c r="H33">
-        <v>57.073753884737</v>
+        <v>189.876817</v>
       </c>
       <c r="I33">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="J33">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>8129.328533953477</v>
+        <v>9053.045194922359</v>
       </c>
       <c r="R33">
-        <v>8129.328533953477</v>
+        <v>81477.40675430124</v>
       </c>
       <c r="S33">
-        <v>0.00323316189796114</v>
+        <v>0.003355044367508706</v>
       </c>
       <c r="T33">
-        <v>0.00323316189796114</v>
+        <v>0.003355044367508705</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>57.073753884737</v>
+        <v>63.29227233333334</v>
       </c>
       <c r="H34">
-        <v>57.073753884737</v>
+        <v>189.876817</v>
       </c>
       <c r="I34">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="J34">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>6941.000283908857</v>
+        <v>8405.518328281136</v>
       </c>
       <c r="R34">
-        <v>6941.000283908857</v>
+        <v>75649.66495453022</v>
       </c>
       <c r="S34">
-        <v>0.002760545050915518</v>
+        <v>0.003115071925091905</v>
       </c>
       <c r="T34">
-        <v>0.002760545050915518</v>
+        <v>0.003115071925091905</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>57.073753884737</v>
+        <v>63.29227233333334</v>
       </c>
       <c r="H35">
-        <v>57.073753884737</v>
+        <v>189.876817</v>
       </c>
       <c r="I35">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="J35">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>7129.315904840639</v>
+        <v>7956.293323984443</v>
       </c>
       <c r="R35">
-        <v>7129.315904840639</v>
+        <v>71606.63991586</v>
       </c>
       <c r="S35">
-        <v>0.002835441137086048</v>
+        <v>0.002948589842217181</v>
       </c>
       <c r="T35">
-        <v>0.002835441137086048</v>
+        <v>0.00294858984221718</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>57.073753884737</v>
+        <v>63.29227233333334</v>
       </c>
       <c r="H36">
-        <v>57.073753884737</v>
+        <v>189.876817</v>
       </c>
       <c r="I36">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="J36">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>3005.908623857999</v>
+        <v>3391.610191031841</v>
       </c>
       <c r="R36">
-        <v>3005.908623857999</v>
+        <v>30524.49171928657</v>
       </c>
       <c r="S36">
-        <v>0.001195497166933185</v>
+        <v>0.001256925423788751</v>
       </c>
       <c r="T36">
-        <v>0.001195497166933185</v>
+        <v>0.001256925423788751</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>57.073753884737</v>
+        <v>63.29227233333334</v>
       </c>
       <c r="H37">
-        <v>57.073753884737</v>
+        <v>189.876817</v>
       </c>
       <c r="I37">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="J37">
-        <v>0.01055330419012893</v>
+        <v>0.0112562093943305</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>1237.624894582842</v>
+        <v>1455.894081088628</v>
       </c>
       <c r="R37">
-        <v>1237.624894582842</v>
+        <v>13103.04672979765</v>
       </c>
       <c r="S37">
-        <v>0.0004922228984129178</v>
+        <v>0.0005395520657717819</v>
       </c>
       <c r="T37">
-        <v>0.0004922228984129178</v>
+        <v>0.000539552065771782</v>
       </c>
     </row>
   </sheetData>
